--- a/hospital-project-excel/test_out.xlsx
+++ b/hospital-project-excel/test_out.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="222">
   <si>
     <t>MRI3</t>
   </si>
@@ -432,13 +432,22 @@
     <t>ENDO_CRNA7</t>
   </si>
   <si>
-    <t>ENDO_CRNA8</t>
+    <t>ENDO_resident1</t>
   </si>
   <si>
     <t>ENDO_attending4</t>
   </si>
   <si>
-    <t>ENDO_resident1</t>
+    <t>ENDO_resident2</t>
+  </si>
+  <si>
+    <t>GSS_CRNA1</t>
+  </si>
+  <si>
+    <t>GSS_attending1</t>
+  </si>
+  <si>
+    <t>GSS_CRNA2</t>
   </si>
   <si>
     <t>GSS_solo1</t>
@@ -465,40 +474,31 @@
     <t>GSS_solo8</t>
   </si>
   <si>
-    <t>GSS_solo9</t>
-  </si>
-  <si>
-    <t>GSS_solo10</t>
-  </si>
-  <si>
     <t>JHOC_CRNA1</t>
   </si>
   <si>
     <t>JHOC_attending1</t>
   </si>
   <si>
-    <t>JHOC_CRNA2</t>
-  </si>
-  <si>
-    <t>JHOC_CRNA3</t>
-  </si>
-  <si>
-    <t>JHOC_CRNA4</t>
+    <t>JHOC_resident1</t>
+  </si>
+  <si>
+    <t>JHOC_resident2</t>
   </si>
   <si>
     <t>JHOC_attending2</t>
   </si>
   <si>
-    <t>JHOC_CRNA5</t>
-  </si>
-  <si>
-    <t>JHOC_CRNA6</t>
-  </si>
-  <si>
-    <t>JHOC_attending3</t>
-  </si>
-  <si>
-    <t>JHOC_CRNA7</t>
+    <t>JHOC_solo1</t>
+  </si>
+  <si>
+    <t>JHOC_solo2</t>
+  </si>
+  <si>
+    <t>JHOC_solo3</t>
+  </si>
+  <si>
+    <t>JHOC_solo4</t>
   </si>
   <si>
     <t>Nel Bas_CRNA1</t>
@@ -525,60 +525,60 @@
     <t>RadOnc_attending1</t>
   </si>
   <si>
+    <t>WEINBERG_CRNA1</t>
+  </si>
+  <si>
+    <t>WEINBERG_attending1</t>
+  </si>
+  <si>
     <t>WEINBERG_resident1</t>
   </si>
   <si>
-    <t>WEINBERG_attending1</t>
-  </si>
-  <si>
     <t>WEINBERG_resident2</t>
   </si>
   <si>
+    <t>WEINBERG_attending2</t>
+  </si>
+  <si>
     <t>WEINBERG_resident3</t>
   </si>
   <si>
-    <t>WEINBERG_attending2</t>
-  </si>
-  <si>
     <t>WEINBERG_resident4</t>
   </si>
   <si>
+    <t>WEINBERG_attending3</t>
+  </si>
+  <si>
     <t>WEINBERG_resident5</t>
   </si>
   <si>
-    <t>WEINBERG_attending3</t>
-  </si>
-  <si>
     <t>WEINBERG_resident6</t>
   </si>
   <si>
+    <t>WEINBERG_attending4</t>
+  </si>
+  <si>
     <t>WEINBERG_resident7</t>
   </si>
   <si>
-    <t>WEINBERG_attending4</t>
-  </si>
-  <si>
     <t>WEINBERG_resident8</t>
   </si>
   <si>
+    <t>WEINBERG_attending5</t>
+  </si>
+  <si>
     <t>WEINBERG_resident9</t>
   </si>
   <si>
-    <t>WEINBERG_attending5</t>
-  </si>
-  <si>
     <t>WEINBERG_resident10</t>
   </si>
   <si>
+    <t>WEINBERG_attending6</t>
+  </si>
+  <si>
     <t>WEINBERG_resident11</t>
   </si>
   <si>
-    <t>WEINBERG_attending6</t>
-  </si>
-  <si>
-    <t>WEINBERG_resident12</t>
-  </si>
-  <si>
     <t>WEINBERG_solo1</t>
   </si>
   <si>
@@ -603,91 +603,88 @@
     <t>WILMER_attending2</t>
   </si>
   <si>
-    <t>WILMER_CRNA4</t>
-  </si>
-  <si>
-    <t>WILMER_CRNA5</t>
-  </si>
-  <si>
-    <t>WILMER_attending3</t>
-  </si>
-  <si>
     <t>WILMER_resident1</t>
   </si>
   <si>
     <t>WILMER_solo1</t>
   </si>
   <si>
+    <t>WILMER_solo2</t>
+  </si>
+  <si>
+    <t>WILMER_solo3</t>
+  </si>
+  <si>
+    <t>ZBOR 3_CRNA1</t>
+  </si>
+  <si>
+    <t>ZBOR 3_attending1</t>
+  </si>
+  <si>
     <t>ZBOR 3_resident1</t>
   </si>
   <si>
-    <t>ZBOR 3_attending1</t>
-  </si>
-  <si>
     <t>ZBOR 3_resident2</t>
   </si>
   <si>
+    <t>ZBOR 3_attending2</t>
+  </si>
+  <si>
     <t>ZBOR 3_resident3</t>
   </si>
   <si>
-    <t>ZBOR 3_attending2</t>
-  </si>
-  <si>
     <t>ZBOR 3_resident4</t>
   </si>
   <si>
+    <t>ZBOR 3_attending3</t>
+  </si>
+  <si>
     <t>ZBOR 3_resident5</t>
   </si>
   <si>
-    <t>ZBOR 3_attending3</t>
-  </si>
-  <si>
     <t>ZBOR 3_resident6</t>
   </si>
   <si>
+    <t>ZBOR 3_attending4</t>
+  </si>
+  <si>
     <t>ZBOR 3_resident7</t>
   </si>
   <si>
-    <t>ZBOR 3_attending4</t>
-  </si>
-  <si>
     <t>ZBOR 3_resident8</t>
   </si>
   <si>
+    <t>ZBOR 3_attending5</t>
+  </si>
+  <si>
     <t>ZBOR 3_resident9</t>
   </si>
   <si>
-    <t>ZBOR 3_attending5</t>
-  </si>
-  <si>
     <t>ZBOR 3_resident10</t>
   </si>
   <si>
+    <t>ZBOR 3_attending6</t>
+  </si>
+  <si>
     <t>ZBOR 3_resident11</t>
   </si>
   <si>
-    <t>ZBOR 3_attending6</t>
-  </si>
-  <si>
     <t>ZBOR 3_resident12</t>
   </si>
   <si>
+    <t>ZBOR 3_attending7</t>
+  </si>
+  <si>
     <t>ZBOR 3_resident13</t>
   </si>
   <si>
-    <t>ZBOR 3_attending7</t>
-  </si>
-  <si>
     <t>ZBOR 3_resident14</t>
   </si>
   <si>
+    <t>ZBOR 3_attending8</t>
+  </si>
+  <si>
     <t>ZBOR 3_resident15</t>
-  </si>
-  <si>
-    <t>ZBOR 3_attending8</t>
-  </si>
-  <si>
-    <t>ZBOR 3_resident16</t>
   </si>
   <si>
     <t>ZBOR 3_solo1</t>
@@ -2416,10 +2413,10 @@
         <v>301</v>
       </c>
       <c r="B3" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="164" t="s">
         <v>196</v>
-      </c>
-      <c r="C3" s="164" t="s">
-        <v>197</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="15">
@@ -2451,10 +2448,10 @@
         <v>302</v>
       </c>
       <c r="B4" s="148" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="20">
@@ -2486,10 +2483,10 @@
         <v>303</v>
       </c>
       <c r="B5" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>199</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>200</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="20">
@@ -2521,10 +2518,10 @@
         <v>304</v>
       </c>
       <c r="B6" s="148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="20">
@@ -2556,10 +2553,10 @@
         <v>305</v>
       </c>
       <c r="B7" s="148" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>202</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>203</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="20">
@@ -2591,10 +2588,10 @@
         <v>306</v>
       </c>
       <c r="B8" s="148" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="20">
@@ -2626,10 +2623,10 @@
         <v>307</v>
       </c>
       <c r="B9" s="148" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>206</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="20">
@@ -2661,10 +2658,10 @@
         <v>308</v>
       </c>
       <c r="B10" s="148" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="20">
@@ -2694,10 +2691,10 @@
         <v>309</v>
       </c>
       <c r="B11" s="148" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>208</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>209</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="20" t="s">
@@ -2727,10 +2724,10 @@
         <v>310</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="20">
@@ -2756,10 +2753,10 @@
         <v>311</v>
       </c>
       <c r="B13" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>211</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>212</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="20">
@@ -2786,10 +2783,10 @@
         <v>312</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="20">
@@ -2821,10 +2818,10 @@
         <v>314</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>214</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>215</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="20">
@@ -2837,10 +2834,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="149" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K15" s="150" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="139"/>
@@ -2852,10 +2849,10 @@
         <v>315</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="39"/>
@@ -2868,10 +2865,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="142" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="143" t="s">
         <v>149</v>
-      </c>
-      <c r="K16" s="143" t="s">
-        <v>148</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="139"/>
@@ -2883,10 +2880,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="112"/>
@@ -2899,10 +2896,10 @@
         <v>3</v>
       </c>
       <c r="J17" s="158" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K17" s="157" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="139"/>
@@ -2914,10 +2911,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="141" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" s="165" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="11"/>
@@ -2931,11 +2928,9 @@
       <c r="I18" s="38">
         <v>4</v>
       </c>
-      <c r="J18" s="158" t="s">
-        <v>151</v>
-      </c>
+      <c r="J18" s="158"/>
       <c r="K18" s="157" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="139"/>
@@ -2950,7 +2945,7 @@
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="45">
@@ -2962,11 +2957,9 @@
       <c r="I19" s="38">
         <v>5</v>
       </c>
-      <c r="J19" s="158" t="s">
-        <v>153</v>
-      </c>
+      <c r="J19" s="158"/>
       <c r="K19" s="157" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="139"/>
@@ -2979,7 +2972,7 @@
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="46">
@@ -2991,9 +2984,7 @@
       <c r="I20" s="38">
         <v>6</v>
       </c>
-      <c r="J20" s="158" t="s">
-        <v>154</v>
-      </c>
+      <c r="J20" s="158"/>
       <c r="K20" s="157" t="s">
         <v>155</v>
       </c>
@@ -3008,7 +2999,7 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="166" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="46">
@@ -3020,11 +3011,9 @@
       <c r="I21" s="38">
         <v>7</v>
       </c>
-      <c r="J21" s="144" t="s">
+      <c r="J21" s="144"/>
+      <c r="K21" s="143" t="s">
         <v>156</v>
-      </c>
-      <c r="K21" s="143" t="s">
-        <v>155</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="139"/>
@@ -3282,11 +3271,9 @@
       <c r="I30" s="58">
         <v>5</v>
       </c>
-      <c r="J30" s="145" t="s">
+      <c r="J30" s="145"/>
+      <c r="K30" s="146" t="s">
         <v>192</v>
-      </c>
-      <c r="K30" s="146" t="s">
-        <v>193</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="67" t="s">
@@ -3315,9 +3302,7 @@
       <c r="I31" s="58">
         <v>6</v>
       </c>
-      <c r="J31" s="145" t="s">
-        <v>194</v>
-      </c>
+      <c r="J31" s="145"/>
       <c r="K31" s="146" t="s">
         <v>193</v>
       </c>
@@ -3352,7 +3337,7 @@
       </c>
       <c r="J32" s="147"/>
       <c r="K32" s="146" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="73" t="s">
@@ -3439,9 +3424,11 @@
       <c r="I35" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="159"/>
+      <c r="J35" s="159" t="s">
+        <v>137</v>
+      </c>
       <c r="K35" s="160" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="75" t="s">
@@ -3472,7 +3459,9 @@
       <c r="I36" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="J36" s="161"/>
+      <c r="J36" s="161" t="s">
+        <v>139</v>
+      </c>
       <c r="K36" s="19" t="s">
         <v>138</v>
       </c>
@@ -3505,7 +3494,7 @@
       </c>
       <c r="J37" s="162"/>
       <c r="K37" s="163" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="77" t="s">
@@ -3536,7 +3525,7 @@
       </c>
       <c r="J38" s="162"/>
       <c r="K38" s="163" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="80" t="s">
@@ -3565,7 +3554,7 @@
       </c>
       <c r="J39" s="162"/>
       <c r="K39" s="163" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="87" t="s">
@@ -3594,7 +3583,7 @@
       </c>
       <c r="J40" s="162"/>
       <c r="K40" s="163" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="126" t="s">
@@ -3625,7 +3614,7 @@
       </c>
       <c r="J41" s="158"/>
       <c r="K41" s="157" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="95" t="s">
@@ -3652,7 +3641,7 @@
       </c>
       <c r="J42" s="158"/>
       <c r="K42" s="157" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="95" t="s">
@@ -3679,7 +3668,7 @@
       </c>
       <c r="J43" s="147"/>
       <c r="K43" s="146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="95" t="s">
@@ -3706,7 +3695,7 @@
       </c>
       <c r="J44" s="153"/>
       <c r="K44" s="154" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="95" t="s">
